--- a/exceltest/电路分析-performance-1621401-2-test.xlsx
+++ b/exceltest/电路分析-performance-1621401-2-test.xlsx
@@ -2321,7 +2321,7 @@
         <v>71</v>
       </c>
       <c r="D29" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E29" t="n">
         <v>65</v>
@@ -2342,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:19">

--- a/exceltest/电路分析-performance-1621401-2-test.xlsx
+++ b/exceltest/电路分析-performance-1621401-2-test.xlsx
@@ -793,7 +793,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:S67"/>
+  <dimension ref="B2:V67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -801,7 +801,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:22">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -857,7 +857,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:22">
       <c r="B3" t="s">
         <v>18</v>
       </c>
@@ -913,7 +913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:22">
       <c r="B4" t="s">
         <v>20</v>
       </c>
@@ -969,7 +969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:22">
       <c r="B5" t="s">
         <v>22</v>
       </c>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:22">
       <c r="B6" t="s">
         <v>24</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:22">
       <c r="B7" t="s">
         <v>26</v>
       </c>
@@ -1136,8 +1136,11 @@
       <c r="S7" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="V7" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="B8" t="s">
         <v>28</v>
       </c>
@@ -1192,8 +1195,11 @@
       <c r="S8" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19">
+      <c r="V8" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="B9" t="s">
         <v>30</v>
       </c>
@@ -1249,7 +1255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:22">
       <c r="B10" t="s">
         <v>32</v>
       </c>
@@ -1304,8 +1310,11 @@
       <c r="S10" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="V10" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="B11" t="s">
         <v>34</v>
       </c>
@@ -1360,8 +1369,11 @@
       <c r="S11" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="V11" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="B12" t="s">
         <v>36</v>
       </c>
@@ -1417,7 +1429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:22">
       <c r="B13" t="s">
         <v>38</v>
       </c>
@@ -1473,7 +1485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:22">
       <c r="B14" t="s">
         <v>40</v>
       </c>
@@ -1528,8 +1540,11 @@
       <c r="S14" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19">
+      <c r="V14" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="B15" t="s">
         <v>42</v>
       </c>
@@ -1585,7 +1600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:22">
       <c r="B16" t="s">
         <v>44</v>
       </c>
@@ -1640,8 +1655,11 @@
       <c r="S16" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:19">
+      <c r="V16" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
       <c r="B17" t="s">
         <v>46</v>
       </c>
@@ -1697,7 +1715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:22">
       <c r="B18" t="s">
         <v>48</v>
       </c>
@@ -1753,7 +1771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:22">
       <c r="B19" t="s">
         <v>50</v>
       </c>
@@ -1809,7 +1827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:22">
       <c r="B20" t="s">
         <v>52</v>
       </c>
@@ -1865,7 +1883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:22">
       <c r="B21" t="s">
         <v>54</v>
       </c>
@@ -1921,7 +1939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:22">
       <c r="B22" t="s">
         <v>56</v>
       </c>
@@ -1977,7 +1995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:22">
       <c r="B23" t="s">
         <v>58</v>
       </c>
@@ -2033,7 +2051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:22">
       <c r="B24" t="s">
         <v>60</v>
       </c>
@@ -2089,7 +2107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:22">
       <c r="B25" t="s">
         <v>62</v>
       </c>
@@ -2144,8 +2162,11 @@
       <c r="S25" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:19">
+      <c r="V25" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
       <c r="B26" t="s">
         <v>64</v>
       </c>
@@ -2201,7 +2222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:22">
       <c r="B27" t="s">
         <v>66</v>
       </c>
@@ -2257,7 +2278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:22">
       <c r="B28" t="s">
         <v>68</v>
       </c>
@@ -2313,7 +2334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:22">
       <c r="B29" t="s">
         <v>70</v>
       </c>
@@ -2369,7 +2390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:22">
       <c r="B30" t="s">
         <v>72</v>
       </c>
@@ -2425,7 +2446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:22">
       <c r="B31" t="s">
         <v>74</v>
       </c>
@@ -2481,7 +2502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:22">
       <c r="B32" t="s">
         <v>76</v>
       </c>
@@ -2537,7 +2558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:19">
+    <row r="33" spans="1:22">
       <c r="B33" t="s">
         <v>78</v>
       </c>
@@ -2593,7 +2614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:19">
+    <row r="34" spans="1:22">
       <c r="B34" t="s">
         <v>80</v>
       </c>
@@ -2649,7 +2670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:19">
+    <row r="35" spans="1:22">
       <c r="B35" t="s">
         <v>82</v>
       </c>
@@ -2705,7 +2726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:19">
+    <row r="36" spans="1:22">
       <c r="B36" t="s">
         <v>84</v>
       </c>
@@ -2760,8 +2781,11 @@
       <c r="S36" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:19">
+      <c r="V36" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22">
       <c r="B37" t="s">
         <v>86</v>
       </c>
@@ -2817,7 +2841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:19">
+    <row r="38" spans="1:22">
       <c r="B38" t="s">
         <v>88</v>
       </c>
@@ -2872,8 +2896,11 @@
       <c r="S38" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:19">
+      <c r="V38" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22">
       <c r="B39" t="s">
         <v>90</v>
       </c>
@@ -2928,8 +2955,11 @@
       <c r="S39" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:19">
+      <c r="V39" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22">
       <c r="B40" t="s">
         <v>92</v>
       </c>
@@ -2985,7 +3015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:19">
+    <row r="41" spans="1:22">
       <c r="B41" t="s">
         <v>94</v>
       </c>
@@ -3040,8 +3070,11 @@
       <c r="S41" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:19">
+      <c r="V41" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22">
       <c r="B42" t="s">
         <v>96</v>
       </c>
@@ -3097,7 +3130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:19">
+    <row r="43" spans="1:22">
       <c r="B43" t="s">
         <v>98</v>
       </c>
@@ -3152,8 +3185,11 @@
       <c r="S43" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:19">
+      <c r="V43" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22">
       <c r="B44" t="s">
         <v>100</v>
       </c>
@@ -3209,7 +3245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:19">
+    <row r="45" spans="1:22">
       <c r="B45" t="s">
         <v>102</v>
       </c>
@@ -3265,7 +3301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:19">
+    <row r="46" spans="1:22">
       <c r="B46" t="s">
         <v>104</v>
       </c>
@@ -3320,8 +3356,11 @@
       <c r="S46" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:19">
+      <c r="V46" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22">
       <c r="B47" t="s">
         <v>106</v>
       </c>
@@ -3376,8 +3415,11 @@
       <c r="S47" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:19">
+      <c r="V47" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22">
       <c r="B48" t="s">
         <v>108</v>
       </c>
@@ -3433,7 +3475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:19">
+    <row r="49" spans="1:22">
       <c r="B49" t="s">
         <v>110</v>
       </c>
@@ -3489,7 +3531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:19">
+    <row r="50" spans="1:22">
       <c r="B50" t="s">
         <v>112</v>
       </c>
@@ -3545,7 +3587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:19">
+    <row r="51" spans="1:22">
       <c r="B51" t="s">
         <v>114</v>
       </c>
@@ -3601,7 +3643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:19">
+    <row r="52" spans="1:22">
       <c r="B52" t="s">
         <v>116</v>
       </c>
@@ -3657,7 +3699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:19">
+    <row r="53" spans="1:22">
       <c r="B53" t="s">
         <v>118</v>
       </c>
@@ -3713,7 +3755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:19">
+    <row r="54" spans="1:22">
       <c r="B54" t="s">
         <v>120</v>
       </c>
@@ -3769,7 +3811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:19">
+    <row r="55" spans="1:22">
       <c r="B55" t="s">
         <v>122</v>
       </c>
@@ -3825,7 +3867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:19">
+    <row r="56" spans="1:22">
       <c r="B56" t="s">
         <v>124</v>
       </c>
@@ -3881,7 +3923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:19">
+    <row r="57" spans="1:22">
       <c r="B57" t="s">
         <v>126</v>
       </c>
@@ -3936,8 +3978,11 @@
       <c r="S57" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:19">
+      <c r="V57" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22">
       <c r="B58" t="s">
         <v>128</v>
       </c>
@@ -3992,8 +4037,11 @@
       <c r="S58" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:19">
+      <c r="V58" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22">
       <c r="B59" t="s">
         <v>130</v>
       </c>
@@ -4049,7 +4097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:19">
+    <row r="60" spans="1:22">
       <c r="B60" t="s">
         <v>132</v>
       </c>
@@ -4105,7 +4153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:19">
+    <row r="61" spans="1:22">
       <c r="B61" t="s">
         <v>134</v>
       </c>
@@ -4161,7 +4209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:19">
+    <row r="62" spans="1:22">
       <c r="B62" t="s">
         <v>136</v>
       </c>
@@ -4217,7 +4265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:19">
+    <row r="63" spans="1:22">
       <c r="B63" t="s">
         <v>138</v>
       </c>
@@ -4273,7 +4321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:19">
+    <row r="64" spans="1:22">
       <c r="B64" t="s">
         <v>140</v>
       </c>
@@ -4329,7 +4377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:19">
+    <row r="65" spans="1:22">
       <c r="B65" t="s">
         <v>142</v>
       </c>
@@ -4385,7 +4433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:19">
+    <row r="66" spans="1:22">
       <c r="B66" t="s">
         <v>144</v>
       </c>
@@ -4441,7 +4489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:19">
+    <row r="67" spans="1:22">
       <c r="B67" t="s">
         <v>146</v>
       </c>

--- a/exceltest/电路分析-performance-1621401-2-test.xlsx
+++ b/exceltest/电路分析-performance-1621401-2-test.xlsx
@@ -968,6 +968,9 @@
       <c r="S4" t="n">
         <v>0</v>
       </c>
+      <c r="V4" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="5" spans="1:22">
       <c r="B5" t="s">
@@ -1024,6 +1027,9 @@
       <c r="S5" t="n">
         <v>0</v>
       </c>
+      <c r="V5" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="6" spans="1:22">
       <c r="B6" t="s">
@@ -1080,6 +1086,9 @@
       <c r="S6" t="n">
         <v>0</v>
       </c>
+      <c r="V6" t="n">
+        <v>79</v>
+      </c>
     </row>
     <row r="7" spans="1:22">
       <c r="B7" t="s">
@@ -1137,7 +1146,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -1196,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -1254,6 +1263,9 @@
       <c r="S9" t="n">
         <v>0</v>
       </c>
+      <c r="V9" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="10" spans="1:22">
       <c r="B10" t="s">
@@ -1311,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -2840,6 +2852,9 @@
       <c r="S37" t="n">
         <v>0</v>
       </c>
+      <c r="V37" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="38" spans="1:22">
       <c r="B38" t="s">
@@ -2897,7 +2912,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:22">
@@ -3014,6 +3029,9 @@
       <c r="S40" t="n">
         <v>0</v>
       </c>
+      <c r="V40" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="41" spans="1:22">
       <c r="B41" t="s">
@@ -3071,7 +3089,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:22">
@@ -3129,6 +3147,9 @@
       <c r="S42" t="n">
         <v>0</v>
       </c>
+      <c r="V42" t="n">
+        <v>91</v>
+      </c>
     </row>
     <row r="43" spans="1:22">
       <c r="B43" t="s">
@@ -3186,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:22">
@@ -3243,6 +3264,9 @@
       </c>
       <c r="S44" t="n">
         <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:22">
